--- a/code/results_cellsMejorado/final/results_100.xlsx
+++ b/code/results_cellsMejorado/final/results_100.xlsx
@@ -508,10 +508,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>29220312</v>
+        <v>5776764.6</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
@@ -536,7 +536,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>109333.4</v>
+        <v>47266.3</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
@@ -550,7 +550,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>9946.3609</v>
+        <v>8685.6379</v>
       </c>
       <c r="C5" s="3">
         <v>0</v>
@@ -564,7 +564,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2">
-        <v>8.3122086</v>
+        <v>5.7542947</v>
       </c>
       <c r="C6" s="3">
         <v>0.000110504</v>
@@ -578,7 +578,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="3">
-        <v>18.073295</v>
+        <v>10.3535155</v>
       </c>
       <c r="C7" s="2">
         <v>115.0819266667</v>
@@ -592,7 +592,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="3">
-        <v>3.5779107</v>
+        <v>1.7854613</v>
       </c>
       <c r="C8" s="2">
         <v>34.5970701961</v>
@@ -605,10 +605,10 @@
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2">
-        <v>42.153317</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="B9" s="3">
+        <v>34.400196</v>
+      </c>
+      <c r="C9" s="2">
         <v>38.4805584314</v>
       </c>
       <c r="D9" s="2">
@@ -620,7 +620,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="3">
-        <v>20.796615</v>
+        <v>16.396242</v>
       </c>
       <c r="C10" s="2">
         <v>29.8291998039</v>
@@ -634,7 +634,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="3">
-        <v>19.006696</v>
+        <v>10.4402165</v>
       </c>
       <c r="C11" s="2">
         <v>193.7879727451</v>
@@ -648,7 +648,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="2">
-        <v>561.04351</v>
+        <v>381.348126</v>
       </c>
       <c r="C12" s="3">
         <v>359.6807647059</v>
@@ -662,7 +662,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="2">
-        <v>44.764218</v>
+        <v>35.816368</v>
       </c>
       <c r="C13" s="3">
         <v>0.0194194193</v>
@@ -676,7 +676,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="2">
-        <v>1964901.3</v>
+        <v>458614.7000000001</v>
       </c>
       <c r="C14" s="3">
         <v>4.9310863431</v>
@@ -690,7 +690,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="2">
-        <v>42798.251</v>
+        <v>23994.5295</v>
       </c>
       <c r="C15" s="3">
         <v>5.9881427451</v>
@@ -704,7 +704,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="2">
-        <v>683.99601</v>
+        <v>460.37185</v>
       </c>
       <c r="C16" s="3">
         <v>0.0523983308</v>
@@ -718,7 +718,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="2">
-        <v>1871.795054</v>
+        <v>861.26382</v>
       </c>
       <c r="C17" s="3">
         <v>0.0606027963</v>
@@ -732,7 +732,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="3">
-        <v>66.38736299999999</v>
+        <v>45.100607</v>
       </c>
       <c r="C18" s="2">
         <v>456.0592137255</v>
@@ -745,10 +745,10 @@
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="2">
-        <v>33.391961</v>
-      </c>
-      <c r="C19" s="3">
+      <c r="B19" s="3">
+        <v>16.56282</v>
+      </c>
+      <c r="C19" s="2">
         <v>23.5045311765</v>
       </c>
       <c r="D19" s="2">
@@ -760,7 +760,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="2">
-        <v>35353.4934</v>
+        <v>21814.2201</v>
       </c>
       <c r="C20" s="3">
         <v>0.0362999907</v>
@@ -774,7 +774,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="2">
-        <v>2030.26401</v>
+        <v>593.92998</v>
       </c>
       <c r="C21" s="3">
         <v>0.0051923244</v>
@@ -788,7 +788,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="3">
-        <v>35.058647</v>
+        <v>18.967324</v>
       </c>
       <c r="C22" s="2">
         <v>383.6904686275</v>
@@ -802,7 +802,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="3">
-        <v>131.24023</v>
+        <v>118.58722</v>
       </c>
       <c r="C23" s="2">
         <v>188.8937176471</v>
@@ -816,7 +816,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="3">
-        <v>74.181488</v>
+        <v>69.65235199999999</v>
       </c>
       <c r="C24" s="2">
         <v>100.481</v>
@@ -830,7 +830,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="3">
-        <v>322.90373</v>
+        <v>320.15789</v>
       </c>
       <c r="C25" s="2">
         <v>809.7517235294</v>
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="2">
-        <v>165.38093</v>
+        <v>156.57514</v>
       </c>
       <c r="C26" s="3">
         <v>100</v>
@@ -858,7 +858,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="3">
-        <v>382.59901</v>
+        <v>352.12046</v>
       </c>
       <c r="C27" s="2">
         <v>404.0113156863</v>
@@ -872,7 +872,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="3">
-        <v>234.4182</v>
+        <v>202.888319</v>
       </c>
       <c r="C28" s="2">
         <v>270.5882352941</v>
@@ -886,7 +886,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="2">
-        <v>401.10253</v>
+        <v>392.98692</v>
       </c>
       <c r="C29" s="3">
         <v>389.728327451</v>
@@ -899,10 +899,10 @@
       <c r="A30" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2">
-        <v>369.51963</v>
-      </c>
-      <c r="C30" s="3">
+      <c r="B30" s="3">
+        <v>331.106875</v>
+      </c>
+      <c r="C30" s="2">
         <v>351.7333098039</v>
       </c>
       <c r="D30" s="2">
@@ -914,7 +914,7 @@
         <v>32</v>
       </c>
       <c r="B31" s="2">
-        <v>273.46629</v>
+        <v>276.35072</v>
       </c>
       <c r="C31" s="3">
         <v>237.5455352941</v>
@@ -928,7 +928,7 @@
         <v>33</v>
       </c>
       <c r="B32" s="2">
-        <v>27125.4392</v>
+        <v>28409.4398</v>
       </c>
       <c r="C32" s="2">
         <v>80512.17467254899</v>
